--- a/output/ursus/2024/sheets/year_2024.xlsx
+++ b/output/ursus/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57.49354838709678</v>
+        <v>57.54034734873721</v>
       </c>
       <c r="C2" t="n">
-        <v>50.50645161290322</v>
+        <v>50.86104369024969</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44.23793103448276</v>
+        <v>58.42629833144127</v>
       </c>
       <c r="C3" t="n">
-        <v>37.04137931034483</v>
+        <v>51.57854489155515</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>58.40967741935484</v>
+        <v>58.50816489683289</v>
       </c>
       <c r="C4" t="n">
-        <v>50.21290322580644</v>
+        <v>52.09165384981613</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59.03666666666667</v>
+        <v>59.08136856850562</v>
       </c>
       <c r="C5" t="n">
-        <v>50.08333333333334</v>
+        <v>51.89638569684313</v>
       </c>
     </row>
   </sheetData>
